--- a/biology/Zoologie/Chonetes/Chonetes.xlsx
+++ b/biology/Zoologie/Chonetes/Chonetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chonetes est un genre fossile de Brachiopodes de l'ordre des Strophomenida, de la super-famille des Chonetoidea, de la famille des Chonetidae et de la sous-famille des Chonetinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des fossiles du genre ont été datés du Costonien pour les plus anciens (il y a 460,9 à 455,8 Ma) et du Jurassique pour les plus récents (il y a 237,0 à 174,1 Ma), retrouvés en Asie, aux Amériques, en Australie[1], en Afrique et en Europe[2]. La Paleobiology Database                   (24 août 2023)[1] affiche un nombre de collections référencées de 764 pour 902 occurrences.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des fossiles du genre ont été datés du Costonien pour les plus anciens (il y a 460,9 à 455,8 Ma) et du Jurassique pour les plus récents (il y a 237,0 à 174,1 Ma), retrouvés en Asie, aux Amériques, en Australie, en Afrique et en Europe. La Paleobiology Database                   (24 août 2023) affiche un nombre de collections référencées de 764 pour 902 occurrences.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des Brachiopodes à la coquille bivalve, sub-équilatérale, aplatie. La charnière est droite édentée, avec des apophyses intérieures droites et divergentes, et d'autres, à la base, rondes formant un creux en entonnoir, où s'attachent probablement les muscles. La coquille se rapproche par sa forme extérieure du genre Orthis, mais Chonetes ne présente pas d'excision triangulaire dans sa charnière[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des Brachiopodes à la coquille bivalve, sub-équilatérale, aplatie. La charnière est droite édentée, avec des apophyses intérieures droites et divergentes, et d'autres, à la base, rondes formant un creux en entonnoir, où s'attachent probablement les muscles. La coquille se rapproche par sa forme extérieure du genre Orthis, mais Chonetes ne présente pas d'excision triangulaire dans sa charnière. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chonetes Fischer de Waldheim, 1830[4], publié en 1837 par Gotthelf Fischer de Waldheim dans son Oryctographie du gouvernement de Moscou[3]. C'est le genre type de la famille des Chonetidae.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chonetes Fischer de Waldheim, 1830, publié en 1837 par Gotthelf Fischer de Waldheim dans son Oryctographie du gouvernement de Moscou. C'est le genre type de la famille des Chonetidae.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon la Paleobiology Database                   (24 août 2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la Paleobiology Database                   (24 août 2023) :
 † Chonetes baragwanathi
 † Chonetes chamishkjensis
 † Chonetes chaoi
@@ -687,7 +707,7 @@
 † Chonetes verneuile
 † Chonetes verneuilianus
 † Chonetes zimmermanni
-Selon l'IRMNG  (24 août 2023)[4] :
+Selon l'IRMNG  (24 août 2023) :
 † Chonetes australis McCoy, 1876
 † Chonetes baragwanathi Gill, 1949
 † Chonetes bowieae Gill, 1945
@@ -742,7 +762,7 @@
 † Chonetes teicherti Gill, 1951
 † Chonetes verneuiliana Norwood &amp; Pratten, 1855
 † Chonetes verneuilianus
-Selon les collections du Muséum national d'Histoire naturelle  (24 août 2023)[2] :
+Selon les collections du Muséum national d'Histoire naturelle  (24 août 2023) :
 † Chonetes armata BOUCHARD, 1845
 † Chonetes buchiana de KONINCK, 1842
 † Chonetes comoides (SOWERBY, 1823)
@@ -764,7 +784,7 @@
 † Chonetes tuberculata (McCOY, 1844)
 † Chonetes variolata (d'ORBIGNY, 1842)
 † Chonetes verneuili BARRANDE, 1848
-Selon Fossiilid.info[5]
+Selon Fossiilid.info
 † Chonetes pseudovariolata Nikitin, 1890</t>
         </is>
       </c>
@@ -793,10 +813,12 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
-[1837] Gotthelf Fischer de Waldheim, Oryctographie du gouvernement de Moscou, Moscou, Société impériale des naturalistes de Moscou, imprimerie d'Auguste Semen, 1837 (lire en ligne), p. 134. </t>
+ Gotthelf Fischer de Waldheim, Oryctographie du gouvernement de Moscou, Moscou, Société impériale des naturalistes de Moscou, imprimerie d'Auguste Semen, 1837 (lire en ligne), p. 134. </t>
         </is>
       </c>
     </row>
